--- a/docentes/Vargas Olvera Francisco Eduardo - Estadisticos 20211.xlsx
+++ b/docentes/Vargas Olvera Francisco Eduardo - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
   <si>
     <t>Mat</t>
   </si>
@@ -71,6 +71,60 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>ARIZMENDI</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>NUÑEZ</t>
+  </si>
+  <si>
+    <t>GALVEZ</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>KARLA IRAN</t>
+  </si>
+  <si>
+    <t>LUIS ARIEL</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
+    <t>MONSERRAT</t>
+  </si>
+  <si>
+    <t>MAURICIO</t>
   </si>
 </sst>
 </file>
@@ -779,7 +833,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -812,6 +866,144 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920042</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920049</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920056</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920068</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920081</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920037</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Vargas Olvera Francisco Eduardo - Estadisticos 20211.xlsx
+++ b/docentes/Vargas Olvera Francisco Eduardo - Estadisticos 20211.xlsx
@@ -76,55 +76,55 @@
     <t>ARIZMENDI</t>
   </si>
   <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
     <t>CRUZ</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>VALENCIA</t>
-  </si>
-  <si>
     <t>NUÑEZ</t>
   </si>
   <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
     <t>GALVEZ</t>
   </si>
   <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
     <t>PACHECO</t>
   </si>
   <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
     <t>KARLA IRAN</t>
   </si>
   <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>MONSERRAT</t>
+  </si>
+  <si>
+    <t>MAURICIO</t>
+  </si>
+  <si>
     <t>LUIS ARIEL</t>
   </si>
   <si>
-    <t>MARTIN</t>
-  </si>
-  <si>
     <t>EMMANUEL</t>
-  </si>
-  <si>
-    <t>MONSERRAT</t>
-  </si>
-  <si>
-    <t>MAURICIO</t>
   </si>
 </sst>
 </file>
@@ -891,7 +891,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920049</v>
+        <v>19330051920056</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920056</v>
+        <v>19330051920081</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920068</v>
+        <v>19330051920037</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -952,7 +952,7 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>7</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920081</v>
+        <v>19330051920049</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920037</v>
+        <v>19330051920068</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -998,7 +998,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>7</v>
